--- a/data/pca/factorExposure/factorExposure_2009-01-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-01-02.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0194649283291532</v>
+        <v>-0.01802415419654679</v>
       </c>
       <c r="C2">
-        <v>-0.008697091531323902</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.01176466300584045</v>
+      </c>
+      <c r="D2">
+        <v>0.01251375592684785</v>
+      </c>
+      <c r="E2">
+        <v>0.01430772312884199</v>
+      </c>
+      <c r="F2">
+        <v>-0.004766802086411658</v>
+      </c>
+      <c r="G2">
+        <v>0.02072616572487652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.07967518781192022</v>
+        <v>-0.08272529192097784</v>
       </c>
       <c r="C4">
-        <v>-0.08320188537124541</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.08640015373770127</v>
+      </c>
+      <c r="D4">
+        <v>-0.06048838084827828</v>
+      </c>
+      <c r="E4">
+        <v>0.03144270757670008</v>
+      </c>
+      <c r="F4">
+        <v>-0.02265812313168944</v>
+      </c>
+      <c r="G4">
+        <v>0.02790127200638124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.00402005410266677</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.001550795748488934</v>
+      </c>
+      <c r="D5">
+        <v>-0.000588441948204849</v>
+      </c>
+      <c r="E5">
+        <v>-0.004745280370834755</v>
+      </c>
+      <c r="F5">
+        <v>-0.001570728207079178</v>
+      </c>
+      <c r="G5">
+        <v>-0.004915675004560352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1700294651479755</v>
+        <v>-0.1714373243290026</v>
       </c>
       <c r="C6">
-        <v>0.02112100889552709</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.01008002576316056</v>
+      </c>
+      <c r="D6">
+        <v>-0.06317461624144881</v>
+      </c>
+      <c r="E6">
+        <v>-0.06356620547621965</v>
+      </c>
+      <c r="F6">
+        <v>-0.02544977852696343</v>
+      </c>
+      <c r="G6">
+        <v>-0.02113484101179925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05334631483688913</v>
+        <v>-0.05512687602165573</v>
       </c>
       <c r="C7">
-        <v>-0.05653738373234011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.06184500817780648</v>
+      </c>
+      <c r="D7">
+        <v>-0.0684738485256223</v>
+      </c>
+      <c r="E7">
+        <v>0.06902740967540709</v>
+      </c>
+      <c r="F7">
+        <v>0.003613533764119093</v>
+      </c>
+      <c r="G7">
+        <v>0.0751018174105041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.05115055297920357</v>
+        <v>-0.04896888688652456</v>
       </c>
       <c r="C8">
-        <v>-0.05320986628203308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.05337176389253603</v>
+      </c>
+      <c r="D8">
+        <v>0.01864071086692077</v>
+      </c>
+      <c r="E8">
+        <v>0.04569196752606787</v>
+      </c>
+      <c r="F8">
+        <v>0.01137844036018679</v>
+      </c>
+      <c r="G8">
+        <v>0.002274677692159458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.05738169518730451</v>
+        <v>-0.06197897892954451</v>
       </c>
       <c r="C9">
-        <v>-0.09274427628756508</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.09359518841529281</v>
+      </c>
+      <c r="D9">
+        <v>-0.09064604018590941</v>
+      </c>
+      <c r="E9">
+        <v>0.05093862518272389</v>
+      </c>
+      <c r="F9">
+        <v>-0.01109067357677645</v>
+      </c>
+      <c r="G9">
+        <v>0.004048254309035666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.115948034826111</v>
+        <v>-0.102731911885936</v>
       </c>
       <c r="C10">
-        <v>0.1448503166284784</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.134395420938006</v>
+      </c>
+      <c r="D10">
+        <v>0.09247948679476167</v>
+      </c>
+      <c r="E10">
+        <v>0.05160101790292555</v>
+      </c>
+      <c r="F10">
+        <v>0.02466182095306263</v>
+      </c>
+      <c r="G10">
+        <v>-0.009978261464063408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.07845375539838721</v>
+        <v>-0.07589531518450007</v>
       </c>
       <c r="C11">
-        <v>-0.133625271936353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.1323336542014825</v>
+      </c>
+      <c r="D11">
+        <v>-0.05021438726284966</v>
+      </c>
+      <c r="E11">
+        <v>0.07230309224716337</v>
+      </c>
+      <c r="F11">
+        <v>-0.008638877491138319</v>
+      </c>
+      <c r="G11">
+        <v>-0.003389216423103035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.0795499288644046</v>
+        <v>-0.07592390244968138</v>
       </c>
       <c r="C12">
-        <v>-0.159531808210051</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.1560922325433536</v>
+      </c>
+      <c r="D12">
+        <v>-0.05472672987057145</v>
+      </c>
+      <c r="E12">
+        <v>0.07611378501455636</v>
+      </c>
+      <c r="F12">
+        <v>-0.0001673885082067214</v>
+      </c>
+      <c r="G12">
+        <v>0.02191935382984925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.03979274268675242</v>
+        <v>-0.04166498872989082</v>
       </c>
       <c r="C13">
-        <v>-0.06784813547173026</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.07217479078292498</v>
+      </c>
+      <c r="D13">
+        <v>-0.03494180094571044</v>
+      </c>
+      <c r="E13">
+        <v>0.07699794237307622</v>
+      </c>
+      <c r="F13">
+        <v>0.002549379181083345</v>
+      </c>
+      <c r="G13">
+        <v>0.03125475376281061</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.02070161498854574</v>
+        <v>-0.02326504245339956</v>
       </c>
       <c r="C14">
-        <v>-0.04898069864200526</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.04994095868762596</v>
+      </c>
+      <c r="D14">
+        <v>-0.04559002247275782</v>
+      </c>
+      <c r="E14">
+        <v>0.07233402889458719</v>
+      </c>
+      <c r="F14">
+        <v>-0.002298950430119187</v>
+      </c>
+      <c r="G14">
+        <v>-0.008297269130874179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03335003432129807</v>
+        <v>-0.03363050146995001</v>
       </c>
       <c r="C15">
-        <v>-0.0647237608683754</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.06239261177668228</v>
+      </c>
+      <c r="D15">
+        <v>-0.04821741139676461</v>
+      </c>
+      <c r="E15">
+        <v>0.02184416128860847</v>
+      </c>
+      <c r="F15">
+        <v>0.01742682409919712</v>
+      </c>
+      <c r="G15">
+        <v>0.0136737853647167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05657068599963846</v>
+        <v>-0.05524290438715099</v>
       </c>
       <c r="C16">
-        <v>-0.1542421257698057</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.1526916036240119</v>
+      </c>
+      <c r="D16">
+        <v>-0.04955375705484407</v>
+      </c>
+      <c r="E16">
+        <v>0.06266861872199285</v>
+      </c>
+      <c r="F16">
+        <v>-0.02686548581184904</v>
+      </c>
+      <c r="G16">
+        <v>-0.01439559690765101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.006885382934615099</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.005024017989115641</v>
+      </c>
+      <c r="D17">
+        <v>0.003152422187688013</v>
+      </c>
+      <c r="E17">
+        <v>-0.01032669387404102</v>
+      </c>
+      <c r="F17">
+        <v>0.01059624154009689</v>
+      </c>
+      <c r="G17">
+        <v>-0.007259453171258576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>-0.04331800123758062</v>
+        <v>-0.05363268186371813</v>
       </c>
       <c r="C18">
-        <v>-0.0525917856453697</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.04769209069819334</v>
+      </c>
+      <c r="D18">
+        <v>0.002840862539123707</v>
+      </c>
+      <c r="E18">
+        <v>-0.05814558889259979</v>
+      </c>
+      <c r="F18">
+        <v>0.002106987786423301</v>
+      </c>
+      <c r="G18">
+        <v>-0.0130996747642583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.05669105257218546</v>
+        <v>-0.05595256562089988</v>
       </c>
       <c r="C20">
-        <v>-0.1021004228598958</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.1002478387995251</v>
+      </c>
+      <c r="D20">
+        <v>-0.07369033183072883</v>
+      </c>
+      <c r="E20">
+        <v>0.06328439439757995</v>
+      </c>
+      <c r="F20">
+        <v>-0.0002962331329125187</v>
+      </c>
+      <c r="G20">
+        <v>0.006982790229685299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.04401636335265013</v>
+        <v>-0.04570893318589761</v>
       </c>
       <c r="C21">
-        <v>-0.06524483175501064</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.06203876957770831</v>
+      </c>
+      <c r="D21">
+        <v>-0.02218489451438481</v>
+      </c>
+      <c r="E21">
+        <v>0.06364777680673542</v>
+      </c>
+      <c r="F21">
+        <v>-0.006527970005898488</v>
+      </c>
+      <c r="G21">
+        <v>0.02659902913173389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.04523089799540798</v>
+        <v>-0.04500786905630122</v>
       </c>
       <c r="C22">
-        <v>-0.03633517056692258</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04016347964133819</v>
+      </c>
+      <c r="D22">
+        <v>0.09810351617873948</v>
+      </c>
+      <c r="E22">
+        <v>-0.04928282108305229</v>
+      </c>
+      <c r="F22">
+        <v>-0.09937937477880773</v>
+      </c>
+      <c r="G22">
+        <v>-0.1134707179220939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.04524050343749958</v>
+        <v>-0.04501628751128815</v>
       </c>
       <c r="C23">
-        <v>-0.03632874040091662</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.04015786389350365</v>
+      </c>
+      <c r="D23">
+        <v>0.09814426247620921</v>
+      </c>
+      <c r="E23">
+        <v>-0.0492796094905396</v>
+      </c>
+      <c r="F23">
+        <v>-0.09937819384333126</v>
+      </c>
+      <c r="G23">
+        <v>-0.1135353470994155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06495381015938315</v>
+        <v>-0.06362234039890494</v>
       </c>
       <c r="C24">
-        <v>-0.1411761303086348</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.137670673206155</v>
+      </c>
+      <c r="D24">
+        <v>-0.05782662921773298</v>
+      </c>
+      <c r="E24">
+        <v>0.06764857472600849</v>
+      </c>
+      <c r="F24">
+        <v>-0.01229849161062438</v>
+      </c>
+      <c r="G24">
+        <v>0.005819121453133593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.07124987766236378</v>
+        <v>-0.06894870567652799</v>
       </c>
       <c r="C25">
-        <v>-0.1252747293654215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.1231311673354126</v>
+      </c>
+      <c r="D25">
+        <v>-0.04667123799944773</v>
+      </c>
+      <c r="E25">
+        <v>0.08952435433096075</v>
+      </c>
+      <c r="F25">
+        <v>0.01462628162849497</v>
+      </c>
+      <c r="G25">
+        <v>0.03506738730327673</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.05712768185888756</v>
+        <v>-0.06130114558284104</v>
       </c>
       <c r="C26">
-        <v>-0.07435420891403692</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.07695897300921133</v>
+      </c>
+      <c r="D26">
+        <v>-0.02476997073990062</v>
+      </c>
+      <c r="E26">
+        <v>0.07536527883436966</v>
+      </c>
+      <c r="F26">
+        <v>0.01118643902799189</v>
+      </c>
+      <c r="G26">
+        <v>0.02215245610679539</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1720026761649963</v>
+        <v>-0.1758221805940064</v>
       </c>
       <c r="C28">
-        <v>0.2291365182593681</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.2292773473772236</v>
+      </c>
+      <c r="D28">
+        <v>-0.001594902086627557</v>
+      </c>
+      <c r="E28">
+        <v>0.1516120558887934</v>
+      </c>
+      <c r="F28">
+        <v>0.0449198219450544</v>
+      </c>
+      <c r="G28">
+        <v>0.02587245503548858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.02492010729514861</v>
+        <v>-0.02684877593172255</v>
       </c>
       <c r="C29">
-        <v>-0.05568976202322165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.05363054852780914</v>
+      </c>
+      <c r="D29">
+        <v>-0.01035109639590827</v>
+      </c>
+      <c r="E29">
+        <v>0.0693023161860664</v>
+      </c>
+      <c r="F29">
+        <v>-0.003270873397574627</v>
+      </c>
+      <c r="G29">
+        <v>-0.006074849543968344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03387207662873248</v>
+        <v>-0.03621997986869883</v>
       </c>
       <c r="C30">
-        <v>-0.06876407357596985</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.07570378206650787</v>
+      </c>
+      <c r="D30">
+        <v>-0.1351146756160394</v>
+      </c>
+      <c r="E30">
+        <v>0.06692797851522524</v>
+      </c>
+      <c r="F30">
+        <v>0.0402660207306014</v>
+      </c>
+      <c r="G30">
+        <v>0.0369043761781158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05321183797475064</v>
+        <v>-0.05224827780099775</v>
       </c>
       <c r="C31">
-        <v>-0.03919537780660558</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.04096594115344074</v>
+      </c>
+      <c r="D31">
+        <v>-0.004615243168171817</v>
+      </c>
+      <c r="E31">
+        <v>0.01078391748297625</v>
+      </c>
+      <c r="F31">
+        <v>-0.04774846476641825</v>
+      </c>
+      <c r="G31">
+        <v>-0.01332141826979732</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.04283676814583583</v>
+        <v>-0.0462174584003865</v>
       </c>
       <c r="C32">
-        <v>-0.0569879808568513</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.05481853065606451</v>
+      </c>
+      <c r="D32">
+        <v>-0.01626970572565494</v>
+      </c>
+      <c r="E32">
+        <v>0.002847406827226443</v>
+      </c>
+      <c r="F32">
+        <v>0.01862623018088171</v>
+      </c>
+      <c r="G32">
+        <v>0.01339615350937865</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07590386797523573</v>
+        <v>-0.08024343576881063</v>
       </c>
       <c r="C33">
-        <v>-0.1146443265280409</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.123872252402661</v>
+      </c>
+      <c r="D33">
+        <v>-0.07211126994545081</v>
+      </c>
+      <c r="E33">
+        <v>0.06426592214166946</v>
+      </c>
+      <c r="F33">
+        <v>-0.0198741390349287</v>
+      </c>
+      <c r="G33">
+        <v>-0.01876609833919063</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05355468614803184</v>
+        <v>-0.05268359220554516</v>
       </c>
       <c r="C34">
-        <v>-0.1260926240107779</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.1252924476116821</v>
+      </c>
+      <c r="D34">
+        <v>-0.08353276811963761</v>
+      </c>
+      <c r="E34">
+        <v>0.07884012835180869</v>
+      </c>
+      <c r="F34">
+        <v>0.01101698648079319</v>
+      </c>
+      <c r="G34">
+        <v>-0.02508295077015383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.02644703088827242</v>
+        <v>-0.02891415197237758</v>
       </c>
       <c r="C35">
-        <v>-0.01966153373729652</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.02190215824875685</v>
+      </c>
+      <c r="D35">
+        <v>-0.01138464891940469</v>
+      </c>
+      <c r="E35">
+        <v>0.02843960107204911</v>
+      </c>
+      <c r="F35">
+        <v>0.01566286967311323</v>
+      </c>
+      <c r="G35">
+        <v>-0.02135375020299078</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02573621104478356</v>
+        <v>-0.02777451218565667</v>
       </c>
       <c r="C36">
-        <v>-0.05666991573560221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.05530005376595343</v>
+      </c>
+      <c r="D36">
+        <v>-0.06127322668723167</v>
+      </c>
+      <c r="E36">
+        <v>0.01004722458867809</v>
+      </c>
+      <c r="F36">
+        <v>0.02270228103563031</v>
+      </c>
+      <c r="G36">
+        <v>-0.08714133311998544</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-0.0005785293840499736</v>
+        <v>-0.004107530145908027</v>
       </c>
       <c r="C37">
-        <v>0.0004188649164923827</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.007475987914947459</v>
+      </c>
+      <c r="D37">
+        <v>-0.001775499874066981</v>
+      </c>
+      <c r="E37">
+        <v>0.009661653384219846</v>
+      </c>
+      <c r="F37">
+        <v>-0.003498850594667216</v>
+      </c>
+      <c r="G37">
+        <v>0.004499110742710271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.07929775598738306</v>
+        <v>-0.07451008862852208</v>
       </c>
       <c r="C39">
-        <v>-0.1553799725349497</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.1484720351650026</v>
+      </c>
+      <c r="D39">
+        <v>-0.02466144405043474</v>
+      </c>
+      <c r="E39">
+        <v>0.1236006896252724</v>
+      </c>
+      <c r="F39">
+        <v>-0.04171102428018397</v>
+      </c>
+      <c r="G39">
+        <v>0.03019071619837654</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.04831454001213105</v>
+        <v>-0.05107992330353742</v>
       </c>
       <c r="C40">
-        <v>-0.07293213870593941</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.07814264865655637</v>
+      </c>
+      <c r="D40">
+        <v>-0.01336965822197025</v>
+      </c>
+      <c r="E40">
+        <v>0.04625598389045641</v>
+      </c>
+      <c r="F40">
+        <v>0.04432121781625278</v>
+      </c>
+      <c r="G40">
+        <v>-0.003558004401007318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02893255246010798</v>
+        <v>-0.02907168325914217</v>
       </c>
       <c r="C41">
-        <v>-0.02361269771027228</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.02504689597623177</v>
+      </c>
+      <c r="D41">
+        <v>0.009152087911171298</v>
+      </c>
+      <c r="E41">
+        <v>-0.01087303134643629</v>
+      </c>
+      <c r="F41">
+        <v>0.01334708604755902</v>
+      </c>
+      <c r="G41">
+        <v>-0.002758342064333128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04338651826328114</v>
+        <v>-0.04189695077546539</v>
       </c>
       <c r="C43">
-        <v>-0.04281500717681943</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.03946528895094163</v>
+      </c>
+      <c r="D43">
+        <v>0.01335370864884483</v>
+      </c>
+      <c r="E43">
+        <v>0.01706520331105004</v>
+      </c>
+      <c r="F43">
+        <v>-0.02800137022768095</v>
+      </c>
+      <c r="G43">
+        <v>-0.03013848308540022</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.05775451590198815</v>
+        <v>-0.0619313688498832</v>
       </c>
       <c r="C44">
-        <v>-0.09106232478322027</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.09262485738863216</v>
+      </c>
+      <c r="D44">
+        <v>-0.29147478655283</v>
+      </c>
+      <c r="E44">
+        <v>0.1090377119925759</v>
+      </c>
+      <c r="F44">
+        <v>0.08193473179418152</v>
+      </c>
+      <c r="G44">
+        <v>-0.1410780614463279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0006088679322016635</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>0.0006425512066116466</v>
+      </c>
+      <c r="D45">
+        <v>0.0002073106948799606</v>
+      </c>
+      <c r="E45">
+        <v>-0.002183022359719341</v>
+      </c>
+      <c r="F45">
+        <v>-0.002636583553049783</v>
+      </c>
+      <c r="G45">
+        <v>0.002995280882292273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02806463346421287</v>
+        <v>-0.0291376578590771</v>
       </c>
       <c r="C46">
-        <v>-0.04407631952863059</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.04119114534776156</v>
+      </c>
+      <c r="D46">
+        <v>-0.003192151228580574</v>
+      </c>
+      <c r="E46">
+        <v>0.06055047531107786</v>
+      </c>
+      <c r="F46">
+        <v>-0.04262771016778809</v>
+      </c>
+      <c r="G46">
+        <v>-0.005344182979196286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.05661778322767635</v>
+        <v>-0.05415884373469135</v>
       </c>
       <c r="C47">
-        <v>-0.04055312207274823</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.03989954413327072</v>
+      </c>
+      <c r="D47">
+        <v>0.03332766836137084</v>
+      </c>
+      <c r="E47">
+        <v>-0.0142268254532871</v>
+      </c>
+      <c r="F47">
+        <v>-0.06283086785434835</v>
+      </c>
+      <c r="G47">
+        <v>-0.03094842105409974</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.04783173814296487</v>
+        <v>-0.04979681995578925</v>
       </c>
       <c r="C48">
-        <v>-0.07178414407308147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.07076828014067385</v>
+      </c>
+      <c r="D48">
+        <v>-0.03472667603849975</v>
+      </c>
+      <c r="E48">
+        <v>0.05936338782280409</v>
+      </c>
+      <c r="F48">
+        <v>-0.004505336300622154</v>
+      </c>
+      <c r="G48">
+        <v>0.04013013312041817</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1880696618549637</v>
+        <v>-0.1938451375200617</v>
       </c>
       <c r="C49">
-        <v>0.02235432545916458</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.01675935814695756</v>
+      </c>
+      <c r="D49">
+        <v>-0.02701502325405454</v>
+      </c>
+      <c r="E49">
+        <v>-0.0313169656994953</v>
+      </c>
+      <c r="F49">
+        <v>0.04165186414630375</v>
+      </c>
+      <c r="G49">
+        <v>0.06449890062781874</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.05247283901950507</v>
+        <v>-0.05254443201968174</v>
       </c>
       <c r="C50">
-        <v>-0.03699043156541288</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.03923376603086595</v>
+      </c>
+      <c r="D50">
+        <v>-0.01979880490720646</v>
+      </c>
+      <c r="E50">
+        <v>0.003815584793106617</v>
+      </c>
+      <c r="F50">
+        <v>-0.0418598031589854</v>
+      </c>
+      <c r="G50">
+        <v>-0.003606036118368771</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>-0.1414288748540932</v>
+        <v>-0.1363091501762545</v>
       </c>
       <c r="C52">
-        <v>-0.03420656338745719</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.03292355238732211</v>
+      </c>
+      <c r="D52">
+        <v>-0.04030195005562635</v>
+      </c>
+      <c r="E52">
+        <v>-0.08459809156043889</v>
+      </c>
+      <c r="F52">
+        <v>-0.08650730179267387</v>
+      </c>
+      <c r="G52">
+        <v>-0.04209106024673418</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1676877725876333</v>
+        <v>-0.1614715771439075</v>
       </c>
       <c r="C53">
-        <v>0.01279613727835394</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.009060431509403801</v>
+      </c>
+      <c r="D53">
+        <v>-0.07470884478954715</v>
+      </c>
+      <c r="E53">
+        <v>-0.1322180919491902</v>
+      </c>
+      <c r="F53">
+        <v>-0.1340075392687912</v>
+      </c>
+      <c r="G53">
+        <v>-0.0403142626939189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01231476335450486</v>
+        <v>-0.01404084930157407</v>
       </c>
       <c r="C54">
-        <v>-0.04049287795776223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.04063797063114321</v>
+      </c>
+      <c r="D54">
+        <v>-0.0178749332381815</v>
+      </c>
+      <c r="E54">
+        <v>0.04076865848175291</v>
+      </c>
+      <c r="F54">
+        <v>-0.008348587648933391</v>
+      </c>
+      <c r="G54">
+        <v>0.00377703101198306</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.1216729726767977</v>
+        <v>-0.1191969269006944</v>
       </c>
       <c r="C55">
-        <v>-0.01326566256345822</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01655612010830235</v>
+      </c>
+      <c r="D55">
+        <v>-0.05443440224130822</v>
+      </c>
+      <c r="E55">
+        <v>-0.05850579858885115</v>
+      </c>
+      <c r="F55">
+        <v>-0.1429908613837889</v>
+      </c>
+      <c r="G55">
+        <v>-0.04961921596584499</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1796013405335715</v>
+        <v>-0.1744241543888502</v>
       </c>
       <c r="C56">
-        <v>0.008830414857877925</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.008328084916715909</v>
+      </c>
+      <c r="D56">
+        <v>-0.02608104099480968</v>
+      </c>
+      <c r="E56">
+        <v>-0.1599006696848653</v>
+      </c>
+      <c r="F56">
+        <v>-0.130764258795124</v>
+      </c>
+      <c r="G56">
+        <v>-0.02480763610781774</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04261895570991065</v>
+        <v>-0.04199147297754556</v>
       </c>
       <c r="C58">
-        <v>-0.09655260256869205</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.1064452466643465</v>
+      </c>
+      <c r="D58">
+        <v>0.003998983406917615</v>
+      </c>
+      <c r="E58">
+        <v>0.04021636886113342</v>
+      </c>
+      <c r="F58">
+        <v>-0.02712076687525589</v>
+      </c>
+      <c r="G58">
+        <v>-0.0001615535670731336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1838748676742584</v>
+        <v>-0.1908552771973649</v>
       </c>
       <c r="C59">
-        <v>0.1673787473926102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.1750488689886594</v>
+      </c>
+      <c r="D59">
+        <v>0.08557866706944289</v>
+      </c>
+      <c r="E59">
+        <v>0.07617741308864148</v>
+      </c>
+      <c r="F59">
+        <v>-0.0140525246064943</v>
+      </c>
+      <c r="G59">
+        <v>0.04346452724766037</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2126087142538489</v>
+        <v>-0.2101655791112664</v>
       </c>
       <c r="C60">
-        <v>0.001177930234979843</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.003588894568442772</v>
+      </c>
+      <c r="D60">
+        <v>0.07334343463913187</v>
+      </c>
+      <c r="E60">
+        <v>-0.1596014599966657</v>
+      </c>
+      <c r="F60">
+        <v>-0.03318309358109864</v>
+      </c>
+      <c r="G60">
+        <v>0.1020265106425439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.06215688569563917</v>
+        <v>-0.05997901877406013</v>
       </c>
       <c r="C61">
-        <v>-0.1304960466963336</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.1278088960460068</v>
+      </c>
+      <c r="D61">
+        <v>-0.02411568872958358</v>
+      </c>
+      <c r="E61">
+        <v>0.07846012746852847</v>
+      </c>
+      <c r="F61">
+        <v>-0.009109160353526555</v>
+      </c>
+      <c r="G61">
+        <v>0.02662203486631393</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1701024839976717</v>
+        <v>-0.1664090315521422</v>
       </c>
       <c r="C62">
-        <v>0.005601842620620219</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.004860624404201504</v>
+      </c>
+      <c r="D62">
+        <v>-0.02608268453411906</v>
+      </c>
+      <c r="E62">
+        <v>-0.1375245881062917</v>
+      </c>
+      <c r="F62">
+        <v>-0.1191460543444055</v>
+      </c>
+      <c r="G62">
+        <v>-0.03425460737404808</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.04016951284417204</v>
+        <v>-0.04304496131669056</v>
       </c>
       <c r="C63">
-        <v>-0.0807771831665936</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.08439909905074053</v>
+      </c>
+      <c r="D63">
+        <v>-0.01943510449565546</v>
+      </c>
+      <c r="E63">
+        <v>0.04052754291962712</v>
+      </c>
+      <c r="F63">
+        <v>0.01715015122434007</v>
+      </c>
+      <c r="G63">
+        <v>-0.01909170784818511</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1132447785271497</v>
+        <v>-0.1106190190126527</v>
       </c>
       <c r="C64">
-        <v>-0.05957367437044244</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.06289519720077397</v>
+      </c>
+      <c r="D64">
+        <v>-0.02818782057178904</v>
+      </c>
+      <c r="E64">
+        <v>-0.04893020781864173</v>
+      </c>
+      <c r="F64">
+        <v>-0.005078798247097706</v>
+      </c>
+      <c r="G64">
+        <v>0.01435168847528966</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.161300214682736</v>
+        <v>-0.1631206584557255</v>
       </c>
       <c r="C65">
-        <v>0.06352736577611615</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.05023831444800649</v>
+      </c>
+      <c r="D65">
+        <v>-0.06842340528911563</v>
+      </c>
+      <c r="E65">
+        <v>-0.00967898145924897</v>
+      </c>
+      <c r="F65">
+        <v>-0.04858779005971994</v>
+      </c>
+      <c r="G65">
+        <v>-0.01934490375681339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.0947799042531802</v>
+        <v>-0.09047881344073662</v>
       </c>
       <c r="C66">
-        <v>-0.1300023329147437</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.1287988406629611</v>
+      </c>
+      <c r="D66">
+        <v>-0.02629385421569296</v>
+      </c>
+      <c r="E66">
+        <v>0.103028571568463</v>
+      </c>
+      <c r="F66">
+        <v>0.01125246095284994</v>
+      </c>
+      <c r="G66">
+        <v>0.004881362287102835</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05426865461585876</v>
+        <v>-0.04730695097997639</v>
       </c>
       <c r="C67">
-        <v>-0.09244265909686905</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.08401473288376086</v>
+      </c>
+      <c r="D67">
+        <v>0.07279952936046589</v>
+      </c>
+      <c r="E67">
+        <v>-0.04472120620911963</v>
+      </c>
+      <c r="F67">
+        <v>-0.05112854630597754</v>
+      </c>
+      <c r="G67">
+        <v>-0.06131242217981955</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1431694099233254</v>
+        <v>-0.1453159125818491</v>
       </c>
       <c r="C68">
-        <v>0.2487614226515393</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.2481625056170946</v>
+      </c>
+      <c r="D68">
+        <v>-0.003399109855180709</v>
+      </c>
+      <c r="E68">
+        <v>0.1431834744969174</v>
+      </c>
+      <c r="F68">
+        <v>0.05476692101224414</v>
+      </c>
+      <c r="G68">
+        <v>0.0748173760368009</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.04119203507151636</v>
+        <v>-0.03949708705349864</v>
       </c>
       <c r="C69">
-        <v>-0.01822280633483623</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.02018868571240712</v>
+      </c>
+      <c r="D69">
+        <v>0.01018894004388219</v>
+      </c>
+      <c r="E69">
+        <v>-0.05673024133212796</v>
+      </c>
+      <c r="F69">
+        <v>-0.03546756718784472</v>
+      </c>
+      <c r="G69">
+        <v>-0.06572003679717062</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.07559018522164493</v>
+        <v>-0.07342794773171959</v>
       </c>
       <c r="C70">
-        <v>-0.09868021855126176</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.09720298214045289</v>
+      </c>
+      <c r="D70">
+        <v>0.5371477706471663</v>
+      </c>
+      <c r="E70">
+        <v>-0.2599219568120156</v>
+      </c>
+      <c r="F70">
+        <v>-0.1864905795189274</v>
+      </c>
+      <c r="G70">
+        <v>0.502722205260057</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.167859259851215</v>
+        <v>-0.1704184563835763</v>
       </c>
       <c r="C71">
-        <v>0.255034644991442</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.2528172940564888</v>
+      </c>
+      <c r="D71">
+        <v>0.004502032930696343</v>
+      </c>
+      <c r="E71">
+        <v>0.1482646117183689</v>
+      </c>
+      <c r="F71">
+        <v>0.0660503198514347</v>
+      </c>
+      <c r="G71">
+        <v>0.08607545648367772</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1465361366874733</v>
+        <v>-0.1506537221711721</v>
       </c>
       <c r="C72">
-        <v>-0.01095204121223883</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.01092204336241845</v>
+      </c>
+      <c r="D72">
+        <v>-0.04129914298976249</v>
+      </c>
+      <c r="E72">
+        <v>-0.04485740430343684</v>
+      </c>
+      <c r="F72">
+        <v>-0.07134515382115844</v>
+      </c>
+      <c r="G72">
+        <v>-0.0845299521214135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1884076479420254</v>
+        <v>-0.1966603507388736</v>
       </c>
       <c r="C73">
-        <v>-0.020566307054128</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.02689584925443565</v>
+      </c>
+      <c r="D73">
+        <v>-0.02597600607729979</v>
+      </c>
+      <c r="E73">
+        <v>-0.1103158048572502</v>
+      </c>
+      <c r="F73">
+        <v>-0.04007157112969429</v>
+      </c>
+      <c r="G73">
+        <v>-0.04286955050578389</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.08814097077146431</v>
+        <v>-0.08684278358087495</v>
       </c>
       <c r="C74">
-        <v>-0.003869334071860237</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.0105920111863715</v>
+      </c>
+      <c r="D74">
+        <v>-0.06597857470024654</v>
+      </c>
+      <c r="E74">
+        <v>-0.08381543901313289</v>
+      </c>
+      <c r="F74">
+        <v>-0.04776429522499224</v>
+      </c>
+      <c r="G74">
+        <v>-0.03998756011598532</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1225347840024578</v>
+        <v>-0.1150996777872592</v>
       </c>
       <c r="C75">
-        <v>-0.02405298222527475</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02545250749480198</v>
+      </c>
+      <c r="D75">
+        <v>-0.01993699281514896</v>
+      </c>
+      <c r="E75">
+        <v>-0.08305683629411115</v>
+      </c>
+      <c r="F75">
+        <v>-0.1173292291414135</v>
+      </c>
+      <c r="G75">
+        <v>-0.07300037360421464</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07748699395161837</v>
+        <v>-0.08738015101933488</v>
       </c>
       <c r="C77">
-        <v>-0.1166713922657448</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.1202183378726009</v>
+      </c>
+      <c r="D77">
+        <v>-0.08204121202463821</v>
+      </c>
+      <c r="E77">
+        <v>0.08332942867918393</v>
+      </c>
+      <c r="F77">
+        <v>-0.06203614142735384</v>
+      </c>
+      <c r="G77">
+        <v>0.1380942694722332</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.07632759381521391</v>
+        <v>-0.08314080033011066</v>
       </c>
       <c r="C78">
-        <v>-0.1244897800418804</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.1242724517544855</v>
+      </c>
+      <c r="D78">
+        <v>-0.05031396052533246</v>
+      </c>
+      <c r="E78">
+        <v>0.0942547464445025</v>
+      </c>
+      <c r="F78">
+        <v>-0.09632466383955134</v>
+      </c>
+      <c r="G78">
+        <v>0.01438383371732055</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1678415732549641</v>
+        <v>-0.1633516546558219</v>
       </c>
       <c r="C79">
-        <v>-0.02076456489213078</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.021235827924931</v>
+      </c>
+      <c r="D79">
+        <v>-0.01472455738072278</v>
+      </c>
+      <c r="E79">
+        <v>-0.06974514770546954</v>
+      </c>
+      <c r="F79">
+        <v>-0.09863215698563477</v>
+      </c>
+      <c r="G79">
+        <v>-0.04676750280152436</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.07944458870943319</v>
+        <v>-0.07571305028441702</v>
       </c>
       <c r="C80">
-        <v>-0.08532656296710854</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.08013600916849432</v>
+      </c>
+      <c r="D80">
+        <v>0.001161901172391996</v>
+      </c>
+      <c r="E80">
+        <v>0.07712054764303271</v>
+      </c>
+      <c r="F80">
+        <v>0.07408222742850695</v>
+      </c>
+      <c r="G80">
+        <v>-0.03804506322870753</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1127247184085762</v>
+        <v>-0.1062580687172176</v>
       </c>
       <c r="C81">
-        <v>0.01376700863048643</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.01167385614096607</v>
+      </c>
+      <c r="D81">
+        <v>0.004351196757333426</v>
+      </c>
+      <c r="E81">
+        <v>-0.0938454866377505</v>
+      </c>
+      <c r="F81">
+        <v>-0.09560870517650953</v>
+      </c>
+      <c r="G81">
+        <v>-0.1053147964612776</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.162660126996239</v>
+        <v>-0.1576714161254453</v>
       </c>
       <c r="C82">
-        <v>0.0159048798499945</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.01238616653966727</v>
+      </c>
+      <c r="D82">
+        <v>-0.07981251585882783</v>
+      </c>
+      <c r="E82">
+        <v>-0.1374834315423803</v>
+      </c>
+      <c r="F82">
+        <v>-0.05298216719270904</v>
+      </c>
+      <c r="G82">
+        <v>-0.05787363506511645</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.05134744358205365</v>
+        <v>-0.04811272839198784</v>
       </c>
       <c r="C83">
-        <v>-0.06413638943639516</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.05904341775273562</v>
+      </c>
+      <c r="D83">
+        <v>0.02537876200310855</v>
+      </c>
+      <c r="E83">
+        <v>0.001137797387198111</v>
+      </c>
+      <c r="F83">
+        <v>0.004267847996776894</v>
+      </c>
+      <c r="G83">
+        <v>0.02119633007206905</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.04710582112656997</v>
+        <v>-0.0459466160090707</v>
       </c>
       <c r="C84">
-        <v>-0.07652830358240335</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.07384766253759692</v>
+      </c>
+      <c r="D84">
+        <v>0.01764835391676827</v>
+      </c>
+      <c r="E84">
+        <v>-0.004568300816638893</v>
+      </c>
+      <c r="F84">
+        <v>-0.01763798699340378</v>
+      </c>
+      <c r="G84">
+        <v>0.01591750869757511</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1399043529292057</v>
+        <v>-0.1352274030920575</v>
       </c>
       <c r="C85">
-        <v>-0.00648441142609319</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.008085420450802442</v>
+      </c>
+      <c r="D85">
+        <v>-0.07925043834322569</v>
+      </c>
+      <c r="E85">
+        <v>-0.06456448002365531</v>
+      </c>
+      <c r="F85">
+        <v>-0.09725254239967306</v>
+      </c>
+      <c r="G85">
+        <v>-0.0604453796551523</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.08388035054912468</v>
+        <v>-0.08381933354318018</v>
       </c>
       <c r="C86">
-        <v>-0.1571599789921751</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.1590714505731057</v>
+      </c>
+      <c r="D86">
+        <v>0.6128884284194853</v>
+      </c>
+      <c r="E86">
+        <v>0.4797535679016594</v>
+      </c>
+      <c r="F86">
+        <v>-0.1175825023919527</v>
+      </c>
+      <c r="G86">
+        <v>-0.4286855529177199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.09166502473869123</v>
+        <v>-0.0872906535565216</v>
       </c>
       <c r="C87">
-        <v>-0.1023690512417814</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.1007830153690327</v>
+      </c>
+      <c r="D87">
+        <v>-0.1224704356771705</v>
+      </c>
+      <c r="E87">
+        <v>0.1027849910613431</v>
+      </c>
+      <c r="F87">
+        <v>0.1628870534241717</v>
+      </c>
+      <c r="G87">
+        <v>0.1287962671150002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.06048390624363207</v>
+        <v>-0.05984865283558712</v>
       </c>
       <c r="C88">
-        <v>-0.0637270589330709</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.06347444060507927</v>
+      </c>
+      <c r="D88">
+        <v>-0.007290210097294089</v>
+      </c>
+      <c r="E88">
+        <v>-0.02996599750527209</v>
+      </c>
+      <c r="F88">
+        <v>-0.0258383213867335</v>
+      </c>
+      <c r="G88">
+        <v>-0.004793181746115431</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.152156969075491</v>
+        <v>-0.1514726814380783</v>
       </c>
       <c r="C89">
-        <v>0.1968474936637557</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.2053249499512938</v>
+      </c>
+      <c r="D89">
+        <v>-0.0107552691262675</v>
+      </c>
+      <c r="E89">
+        <v>0.1014129372913092</v>
+      </c>
+      <c r="F89">
+        <v>0.05967571897492008</v>
+      </c>
+      <c r="G89">
+        <v>0.04333170817146698</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1840665924071854</v>
+        <v>-0.1876620263792987</v>
       </c>
       <c r="C90">
-        <v>0.2293312886418485</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.232351364519631</v>
+      </c>
+      <c r="D90">
+        <v>0.004755829433887945</v>
+      </c>
+      <c r="E90">
+        <v>0.1761240810543277</v>
+      </c>
+      <c r="F90">
+        <v>0.1080132950768379</v>
+      </c>
+      <c r="G90">
+        <v>0.09582088844026809</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1258147280484541</v>
+        <v>-0.1198988682943692</v>
       </c>
       <c r="C91">
-        <v>0.02131422432564362</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01942189013267226</v>
+      </c>
+      <c r="D91">
+        <v>0.03012646520847543</v>
+      </c>
+      <c r="E91">
+        <v>-0.1211651054608034</v>
+      </c>
+      <c r="F91">
+        <v>-0.1029663924899964</v>
+      </c>
+      <c r="G91">
+        <v>-0.1289240825291154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1751112993868251</v>
+        <v>-0.176783723613722</v>
       </c>
       <c r="C92">
-        <v>0.2631563659666125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.2737366287480518</v>
+      </c>
+      <c r="D92">
+        <v>0.006730942613756891</v>
+      </c>
+      <c r="E92">
+        <v>0.2133019047043652</v>
+      </c>
+      <c r="F92">
+        <v>0.0214127462857113</v>
+      </c>
+      <c r="G92">
+        <v>0.07835451205776114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1789714306415601</v>
+        <v>-0.1863791306593203</v>
       </c>
       <c r="C93">
-        <v>0.2223668279485158</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.2265118911330573</v>
+      </c>
+      <c r="D93">
+        <v>0.01040756709796556</v>
+      </c>
+      <c r="E93">
+        <v>0.1090333578255562</v>
+      </c>
+      <c r="F93">
+        <v>-0.01063779629279268</v>
+      </c>
+      <c r="G93">
+        <v>0.06523838431382595</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1184805621366272</v>
+        <v>-0.1131232661594757</v>
       </c>
       <c r="C94">
-        <v>-0.03419983763102495</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03453002787306692</v>
+      </c>
+      <c r="D94">
+        <v>-0.0207519674579611</v>
+      </c>
+      <c r="E94">
+        <v>-0.07921993268537764</v>
+      </c>
+      <c r="F94">
+        <v>-0.1119463259908035</v>
+      </c>
+      <c r="G94">
+        <v>-0.0695803517069444</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1192013339565474</v>
+        <v>-0.1192435056281474</v>
       </c>
       <c r="C95">
-        <v>-0.108845004569428</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.1169301286753552</v>
+      </c>
+      <c r="D95">
+        <v>-0.001187387965899967</v>
+      </c>
+      <c r="E95">
+        <v>0.07189477343496284</v>
+      </c>
+      <c r="F95">
+        <v>-0.0103781519862308</v>
+      </c>
+      <c r="G95">
+        <v>0.009616467819348395</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>-0.1154391552577654</v>
+        <v>-0.1137214495133494</v>
       </c>
       <c r="C96">
-        <v>-0.127450695416373</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.1302748530086514</v>
+      </c>
+      <c r="D96">
+        <v>0.01953025871109294</v>
+      </c>
+      <c r="E96">
+        <v>-0.05392419864245184</v>
+      </c>
+      <c r="F96">
+        <v>-0.02472393467218612</v>
+      </c>
+      <c r="G96">
+        <v>0.1294502400834825</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1974744785545277</v>
+        <v>-0.2014773362388486</v>
       </c>
       <c r="C97">
-        <v>-0.02115512299190909</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.01236521090938323</v>
+      </c>
+      <c r="D97">
+        <v>0.17981982766678</v>
+      </c>
+      <c r="E97">
+        <v>-0.356631789754722</v>
+      </c>
+      <c r="F97">
+        <v>0.6607709395753664</v>
+      </c>
+      <c r="G97">
+        <v>-0.4085052919417275</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1976719840075488</v>
+        <v>-0.2043563370733228</v>
       </c>
       <c r="C98">
-        <v>-0.02237443566741627</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.02604440934931692</v>
+      </c>
+      <c r="D98">
+        <v>0.07642604913539972</v>
+      </c>
+      <c r="E98">
+        <v>-0.07767487010404571</v>
+      </c>
+      <c r="F98">
+        <v>0.09524575182194758</v>
+      </c>
+      <c r="G98">
+        <v>0.1225771901124986</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.05336727102520804</v>
+        <v>-0.05331538874045886</v>
       </c>
       <c r="C99">
-        <v>-0.06717149308289487</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.06583496137863726</v>
+      </c>
+      <c r="D99">
+        <v>0.001119398895672574</v>
+      </c>
+      <c r="E99">
+        <v>0.02806701750783345</v>
+      </c>
+      <c r="F99">
+        <v>0.02692273849833416</v>
+      </c>
+      <c r="G99">
+        <v>0.008386689421620091</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>-0.09864849909804403</v>
+        <v>-0.09506279015227928</v>
       </c>
       <c r="C100">
-        <v>-0.3143620802630019</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.2986257843258274</v>
+      </c>
+      <c r="D100">
+        <v>0.1203422712939015</v>
+      </c>
+      <c r="E100">
+        <v>0.04549123169006709</v>
+      </c>
+      <c r="F100">
+        <v>0.4691110772872913</v>
+      </c>
+      <c r="G100">
+        <v>0.3562621411262568</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.02485062035464846</v>
+        <v>-0.02678189178472713</v>
       </c>
       <c r="C101">
-        <v>-0.05509315532069975</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.05301637497625892</v>
+      </c>
+      <c r="D101">
+        <v>-0.005952838039244457</v>
+      </c>
+      <c r="E101">
+        <v>0.06475926844641608</v>
+      </c>
+      <c r="F101">
+        <v>-0.005529790818348708</v>
+      </c>
+      <c r="G101">
+        <v>-0.003432976815915484</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
